--- a/data/SSC.xlsx
+++ b/data/SSC.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>SSC</t>
@@ -27763,7 +27763,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AI176"/>
+  <dimension ref="A1:AJ176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27806,6 +27806,7 @@
     <col min="33" max="33" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="34" max="34" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27954,6 +27955,9 @@
       <c r="AI11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AJ11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -28058,6 +28062,9 @@
       <c r="AI12" s="25" t="n">
         <v>4.5915352676E10</v>
       </c>
+      <c r="AJ12" s="25" t="n">
+        <v>2.5806112046E10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -28162,6 +28169,9 @@
       <c r="AI13" s="25" t="n">
         <v>7.9129607E7</v>
       </c>
+      <c r="AJ13" s="25" t="n">
+        <v>1.23296185E8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -28266,6 +28276,9 @@
       <c r="AI14" s="25" t="n">
         <v>2.1836223069E10</v>
       </c>
+      <c r="AJ14" s="25" t="n">
+        <v>1.9682815861E10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28370,6 +28383,9 @@
       <c r="AI15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28474,6 +28490,9 @@
       <c r="AI16" s="25" t="n">
         <v>2.4E10</v>
       </c>
+      <c r="AJ16" s="25" t="n">
+        <v>6.0E9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28578,6 +28597,9 @@
       <c r="AI17" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28682,6 +28704,9 @@
       <c r="AI18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28786,6 +28811,9 @@
       <c r="AI19" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28890,6 +28918,9 @@
       <c r="AI20" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -28994,6 +29025,9 @@
       <c r="AI21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -29098,6 +29132,9 @@
       <c r="AI22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -29202,6 +29239,9 @@
       <c r="AI23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -29306,6 +29346,9 @@
       <c r="AI24" s="25" t="n">
         <v>1.4559754611E10</v>
       </c>
+      <c r="AJ24" s="25" t="n">
+        <v>1.5960186518E10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29410,6 +29453,9 @@
       <c r="AI25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29514,6 +29560,9 @@
       <c r="AI26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29618,6 +29667,9 @@
       <c r="AI27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29722,6 +29774,9 @@
       <c r="AI28" s="25" t="n">
         <v>1.4559754611E10</v>
       </c>
+      <c r="AJ28" s="25" t="n">
+        <v>1.5960186518E10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29826,6 +29881,9 @@
       <c r="AI29" s="25" t="n">
         <v>2.31900812392E11</v>
       </c>
+      <c r="AJ29" s="25" t="n">
+        <v>2.0486305487E11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -29930,6 +29988,9 @@
       <c r="AI30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -30034,6 +30095,9 @@
       <c r="AI31" s="25" t="n">
         <v>1.6598273009E10</v>
       </c>
+      <c r="AJ31" s="25" t="n">
+        <v>1.7385017818E10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -30138,6 +30202,9 @@
       <c r="AI32" s="25" t="n">
         <v>5.34711383E8</v>
       </c>
+      <c r="AJ32" s="25" t="n">
+        <v>5.23478146E8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -30242,6 +30309,9 @@
       <c r="AI33" s="25" t="n">
         <v>6.99122587E8</v>
       </c>
+      <c r="AJ33" s="25" t="n">
+        <v>6.12435643E8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -30346,6 +30416,9 @@
       <c r="AI34" s="25" t="n">
         <v>2.11385674843E11</v>
       </c>
+      <c r="AJ34" s="25" t="n">
+        <v>1.83853953633E11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -30450,6 +30523,9 @@
       <c r="AI35" s="25" t="n">
         <v>2.68303057E9</v>
       </c>
+      <c r="AJ35" s="25" t="n">
+        <v>2.48816963E9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -30554,6 +30630,9 @@
       <c r="AI36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -30658,6 +30737,9 @@
       <c r="AI37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -30762,6 +30844,9 @@
       <c r="AI38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -30866,6 +30951,9 @@
       <c r="AI39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -30970,6 +31058,9 @@
       <c r="AI40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -31074,6 +31165,9 @@
       <c r="AI41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -31178,6 +31272,9 @@
       <c r="AI42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -31282,6 +31379,9 @@
       <c r="AI43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -31386,6 +31486,9 @@
       <c r="AI44" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ44" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -31490,6 +31593,9 @@
       <c r="AI45" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ45" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -31594,6 +31700,9 @@
       <c r="AI46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -31698,6 +31807,9 @@
       <c r="AI47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -31802,6 +31914,9 @@
       <c r="AI48" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -31906,6 +32021,9 @@
       <c r="AI49" s="25" t="n">
         <v>2.00056716228E11</v>
       </c>
+      <c r="AJ49" s="25" t="n">
+        <v>2.00170016228E11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -32010,6 +32128,9 @@
       <c r="AI50" s="25" t="n">
         <v>1.94789881445E11</v>
       </c>
+      <c r="AJ50" s="25" t="n">
+        <v>1.94789881445E11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -32114,6 +32235,9 @@
       <c r="AI51" s="25" t="n">
         <v>5.266834783E9</v>
       </c>
+      <c r="AJ51" s="25" t="n">
+        <v>5.380134783E9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -32218,6 +32342,9 @@
       <c r="AI52" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ52" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -32322,6 +32449,9 @@
       <c r="AI53" s="25" t="n">
         <v>1.48226039378E11</v>
       </c>
+      <c r="AJ53" s="25" t="n">
+        <v>1.5110333029E11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -32426,6 +32556,9 @@
       <c r="AI54" s="25" t="n">
         <v>1.42509786006E11</v>
       </c>
+      <c r="AJ54" s="25" t="n">
+        <v>1.42509786006E11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -32530,6 +32663,9 @@
       <c r="AI55" s="25" t="n">
         <v>5.716253372E9</v>
       </c>
+      <c r="AJ55" s="25" t="n">
+        <v>8.593544284E9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -32634,6 +32770,9 @@
       <c r="AI56" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ56" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -32738,6 +32877,9 @@
       <c r="AI57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -32842,6 +32984,9 @@
       <c r="AI58" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -32946,6 +33091,9 @@
       <c r="AI59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -33050,6 +33198,9 @@
       <c r="AI60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -33154,6 +33305,9 @@
       <c r="AI61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -33258,6 +33412,9 @@
       <c r="AI62" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -33362,6 +33519,9 @@
       <c r="AI63" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -33466,6 +33626,9 @@
       <c r="AI64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -33570,6 +33733,9 @@
       <c r="AI65" s="25" t="n">
         <v>5.6965334468E10</v>
       </c>
+      <c r="AJ65" s="25" t="n">
+        <v>5.6965334468E10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -33674,6 +33840,9 @@
       <c r="AI66" s="25" t="n">
         <v>5.6965334468E10</v>
       </c>
+      <c r="AJ66" s="25" t="n">
+        <v>5.6965334468E10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -33778,6 +33947,9 @@
       <c r="AI67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -33882,6 +34054,9 @@
       <c r="AI68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -33986,6 +34161,9 @@
       <c r="AI69" s="25" t="n">
         <v>1.2340314454E10</v>
       </c>
+      <c r="AJ69" s="25" t="n">
+        <v>1.2709439615E10</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -34090,6 +34268,9 @@
       <c r="AI70" s="25" t="n">
         <v>1.1522897482E10</v>
       </c>
+      <c r="AJ70" s="25" t="n">
+        <v>1.1522897482E10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -34194,6 +34375,9 @@
       <c r="AI71" s="25" t="n">
         <v>8.17416972E8</v>
       </c>
+      <c r="AJ71" s="25" t="n">
+        <v>1.186542133E9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -34298,6 +34482,9 @@
       <c r="AI72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -34402,6 +34589,9 @@
       <c r="AI73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -34506,6 +34696,9 @@
       <c r="AI74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -34610,6 +34803,9 @@
       <c r="AI75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -34714,6 +34910,9 @@
       <c r="AI76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -34818,6 +35017,9 @@
       <c r="AI77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -34922,6 +35124,9 @@
       <c r="AI78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -35026,6 +35231,9 @@
       <c r="AI79" s="25" t="n">
         <v>1.41823915566E11</v>
       </c>
+      <c r="AJ79" s="25" t="n">
+        <v>5.753905518E10</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -35130,6 +35338,9 @@
       <c r="AI80" s="25" t="n">
         <v>1.41823915566E11</v>
       </c>
+      <c r="AJ80" s="25" t="n">
+        <v>5.753905518E10</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -35234,6 +35445,9 @@
       <c r="AI81" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ81" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -35338,6 +35552,9 @@
       <c r="AI82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -35442,6 +35659,9 @@
       <c r="AI83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -35546,6 +35766,9 @@
       <c r="AI84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -35650,6 +35873,9 @@
       <c r="AI85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -35754,6 +35980,9 @@
       <c r="AI86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -35858,6 +36087,9 @@
       <c r="AI87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -35962,6 +36194,9 @@
       <c r="AI88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -36066,6 +36301,9 @@
       <c r="AI89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -36170,6 +36408,9 @@
       <c r="AI90" s="25" t="n">
         <v>5.562175092E9</v>
       </c>
+      <c r="AJ90" s="25" t="n">
+        <v>6.619011573E9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -36274,6 +36515,9 @@
       <c r="AI91" s="25" t="n">
         <v>3.97171961E8</v>
       </c>
+      <c r="AJ91" s="25" t="n">
+        <v>5.73258801E8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -36378,6 +36622,9 @@
       <c r="AI92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -36482,6 +36729,9 @@
       <c r="AI93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -36586,6 +36836,9 @@
       <c r="AI94" s="25" t="n">
         <v>3.945752967E9</v>
       </c>
+      <c r="AJ94" s="25" t="n">
+        <v>4.986572464E9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -36690,6 +36943,9 @@
       <c r="AI95" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ95" s="25" t="n">
+        <v>4.6950113E7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -36794,6 +37050,9 @@
       <c r="AI96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -36898,6 +37157,9 @@
       <c r="AI97" s="25" t="n">
         <v>1.219250164E9</v>
       </c>
+      <c r="AJ97" s="25" t="n">
+        <v>1.012230195E9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -37002,6 +37264,9 @@
       <c r="AI98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -37106,6 +37371,9 @@
       <c r="AI99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -37210,6 +37478,9 @@
       <c r="AI100" s="25" t="n">
         <v>1.7227539837E10</v>
       </c>
+      <c r="AJ100" s="25" t="n">
+        <v>1.5230630921E10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -37314,6 +37585,9 @@
       <c r="AI101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -37418,6 +37692,9 @@
       <c r="AI102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -37522,6 +37799,9 @@
       <c r="AI103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -37626,6 +37906,9 @@
       <c r="AI104" s="25" t="n">
         <v>1.7227539837E10</v>
       </c>
+      <c r="AJ104" s="25" t="n">
+        <v>1.5230630921E10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -37730,6 +38013,9 @@
       <c r="AI105" s="25" t="n">
         <v>1.03267622912E11</v>
       </c>
+      <c r="AJ105" s="25" t="n">
+        <v>1.02918436498E11</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -37834,6 +38120,9 @@
       <c r="AI106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -37938,6 +38227,9 @@
       <c r="AI107" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ107" s="25" t="n">
+        <v>2.67634E8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -38042,6 +38334,9 @@
       <c r="AI108" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -38146,6 +38441,9 @@
       <c r="AI109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -38250,6 +38548,9 @@
       <c r="AI110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -38354,6 +38655,9 @@
       <c r="AI111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -38458,6 +38762,9 @@
       <c r="AI112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -38562,6 +38869,9 @@
       <c r="AI113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -38666,6 +38976,9 @@
       <c r="AI114" s="25" t="n">
         <v>1.03267622912E11</v>
       </c>
+      <c r="AJ114" s="25" t="n">
+        <v>1.02650802498E11</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -38770,6 +39083,9 @@
       <c r="AI115" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ115" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -38874,6 +39190,9 @@
       <c r="AI116" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ116" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -38978,6 +39297,9 @@
       <c r="AI117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -39082,6 +39404,9 @@
       <c r="AI118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -39186,6 +39511,9 @@
       <c r="AI119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -39290,6 +39618,9 @@
       <c r="AI120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -39394,6 +39725,9 @@
       <c r="AI121" s="25" t="n">
         <v>1.4992367E11</v>
       </c>
+      <c r="AJ121" s="25" t="n">
+        <v>1.4992367E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -39498,6 +39832,9 @@
       <c r="AI122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -39602,6 +39939,9 @@
       <c r="AI123" s="25" t="n">
         <v>1.4992367E11</v>
       </c>
+      <c r="AJ123" s="25" t="n">
+        <v>1.4992367E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -39706,6 +40046,9 @@
       <c r="AI124" s="25" t="n">
         <v>9.2959069631E10</v>
       </c>
+      <c r="AJ124" s="25" t="n">
+        <v>6.3694865718E10</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -39810,6 +40153,9 @@
       <c r="AI125" s="25" t="n">
         <v>8.3398337677E10</v>
       </c>
+      <c r="AJ125" s="25" t="n">
+        <v>6.3694865718E10</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -39914,6 +40260,9 @@
       <c r="AI126" s="25" t="n">
         <v>9.560731954E9</v>
       </c>
+      <c r="AJ126" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -40018,6 +40367,9 @@
       <c r="AI127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -40122,6 +40474,9 @@
       <c r="AI128" s="25" t="n">
         <v>4.337334227E9</v>
       </c>
+      <c r="AJ128" s="25" t="n">
+        <v>1.838094324E9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -40226,6 +40581,9 @@
       <c r="AI129" s="25" t="n">
         <v>4.322514227E9</v>
       </c>
+      <c r="AJ129" s="25" t="n">
+        <v>1.838094324E9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -40330,6 +40688,9 @@
       <c r="AI130" s="25" t="n">
         <v>1.482E7</v>
       </c>
+      <c r="AJ130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -40434,6 +40795,9 @@
       <c r="AI131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -40538,6 +40902,9 @@
       <c r="AI132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -40642,6 +41009,9 @@
       <c r="AI133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -40746,6 +41116,9 @@
       <c r="AI134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -40850,6 +41223,9 @@
       <c r="AI135" s="25" t="n">
         <v>6.1119259088E10</v>
       </c>
+      <c r="AJ135" s="25" t="n">
+        <v>4.349385438E10</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -40954,6 +41330,9 @@
       <c r="AI136" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ136" s="25" t="n">
+        <v>4.3867251529E10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -41058,6 +41437,9 @@
       <c r="AI137" s="25" t="n">
         <v>5.6849324473E10</v>
       </c>
+      <c r="AJ137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -41162,6 +41544,9 @@
       <c r="AI138" s="25" t="n">
         <v>3.896537466E9</v>
       </c>
+      <c r="AJ138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -41266,6 +41651,9 @@
       <c r="AI139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -41370,6 +41758,9 @@
       <c r="AI140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -41474,6 +41865,9 @@
       <c r="AI141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -41578,6 +41972,9 @@
       <c r="AI142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -41682,6 +42079,9 @@
       <c r="AI143" s="25" t="n">
         <v>3.73397149E8</v>
       </c>
+      <c r="AJ143" s="25" t="n">
+        <v>-3.73397149E8</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -41786,6 +42186,9 @@
       <c r="AI144" s="25" t="n">
         <v>1.743946511E9</v>
       </c>
+      <c r="AJ144" s="25" t="n">
+        <v>1.846032061E9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -41890,6 +42293,9 @@
       <c r="AI145" s="25" t="n">
         <v>1.655367136E9</v>
       </c>
+      <c r="AJ145" s="25" t="n">
+        <v>1.759827061E9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -41994,6 +42400,9 @@
       <c r="AI146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -42098,6 +42507,9 @@
       <c r="AI147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -42202,6 +42614,9 @@
       <c r="AI148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -42306,6 +42721,9 @@
       <c r="AI149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -42410,6 +42828,9 @@
       <c r="AI150" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ150" s="25" t="n">
+        <v>6744801.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -42514,6 +42935,9 @@
       <c r="AI151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -42618,6 +43042,9 @@
       <c r="AI152" s="25" t="n">
         <v>9.6069708E7</v>
       </c>
+      <c r="AJ152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -42722,6 +43149,9 @@
       <c r="AI153" s="25" t="n">
         <v>-7490333.0</v>
       </c>
+      <c r="AJ153" s="25" t="n">
+        <v>7.9460199E7</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -42826,6 +43256,9 @@
       <c r="AI154" s="25" t="n">
         <v>1.653013482E9</v>
       </c>
+      <c r="AJ154" s="25" t="n">
+        <v>1.317489058E9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -42930,6 +43363,9 @@
       <c r="AI155" s="25" t="n">
         <v>1.628825639E9</v>
       </c>
+      <c r="AJ155" s="25" t="n">
+        <v>1.332409168E9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -43034,6 +43470,9 @@
       <c r="AI156" s="25" t="n">
         <v>2.1316993E7</v>
       </c>
+      <c r="AJ156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -43138,6 +43577,9 @@
       <c r="AI157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -43242,6 +43684,9 @@
       <c r="AI158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -43346,6 +43791,9 @@
       <c r="AI159" s="25" t="n">
         <v>2870850.0</v>
       </c>
+      <c r="AJ159" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -43450,6 +43898,9 @@
       <c r="AI160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -43554,6 +44005,9 @@
       <c r="AI161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -43658,6 +44112,9 @@
       <c r="AI162" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ162" s="25" t="n">
+        <v>-1.492011E7</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -43762,6 +44219,9 @@
       <c r="AI163" s="25" t="n">
         <v>9.4921634688E10</v>
       </c>
+      <c r="AJ163" s="25" t="n">
+        <v>3.8584937174E10</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -43866,6 +44326,9 @@
       <c r="AI164" s="25" t="n">
         <v>7.8347952039E10</v>
       </c>
+      <c r="AJ164" s="25" t="n">
+        <v>2.5092581806E10</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -43970,6 +44433,9 @@
       <c r="AI165" s="25" t="n">
         <v>2.663368787E9</v>
       </c>
+      <c r="AJ165" s="25" t="n">
+        <v>2.603564828E9</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -44074,6 +44540,9 @@
       <c r="AI166" s="25" t="n">
         <v>1.656921162E9</v>
       </c>
+      <c r="AJ166" s="25" t="n">
+        <v>2.908832568E9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -44178,6 +44647,9 @@
       <c r="AI167" s="25" t="n">
         <v>7.508551838E9</v>
       </c>
+      <c r="AJ167" s="25" t="n">
+        <v>6.470671885E9</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -44281,6 +44753,9 @@
       </c>
       <c r="AI168" s="25" t="n">
         <v>4.744840862E9</v>
+      </c>
+      <c r="AJ168" s="25" t="n">
+        <v>1.509286087E9</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -44321,7 +44796,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AI10"/>
+    <mergeCell ref="I10:AJ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/SSC.xlsx
+++ b/data/SSC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>SSC</t>

--- a/data/SSC.xlsx
+++ b/data/SSC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>SSC</t>

--- a/data/SSC.xlsx
+++ b/data/SSC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>SSC</t>
